--- a/Code/WebUI/Files/当日飞行计划申报模板.xlsx
+++ b/Code/WebUI/Files/当日飞行计划申报模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>航线走向和飞行高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>起飞机场</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,14 +59,22 @@
   </si>
   <si>
     <t>预计结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -211,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,7 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,60 +424,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="2" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -486,12 +491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -500,12 +505,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
